--- a/mdToXlsx/Status Migrazione.xlsx
+++ b/mdToXlsx/Status Migrazione.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cybsecit-my.sharepoint.com/personal/arbattilomo_cybsec_it/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntonioSansonne\PycharmProjects\DocxFromPumlAndMd\mdToXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2806C08B-F9C2-42F0-AA3F-4057875B6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D48D7E3-24C2-4B2F-BE70-3ECF779300BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Wave 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Merge e Deploy QA Wave 2" sheetId="5" r:id="rId3"/>
-    <sheet name="Wave 3" sheetId="6" r:id="rId4"/>
-    <sheet name="Templates" sheetId="2" r:id="rId5"/>
+    <sheet name="Wave 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Merge e Deploy QA Wave 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Wave 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Templates" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Merge e Deploy QA Wave 2'!$A$1:$M$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Templates!$A$1:$E$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wave 1'!$A$1:$M$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wave 2'!$B$104:$B$104</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="572">
   <si>
     <t>Code</t>
   </si>
@@ -466,50 +465,7 @@
     <t>WASP-GISA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">alcune classi presenti nella libreria </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">spring-boot-starter-test  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> sono usate nel codice sorgente e non solo nel package di test. Dopo la migrazione alla libreria è stato aggiunto lo scope </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">test </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> obbligatorio per il template perchè si trova in una required section. La soluzione trovata è la seguente: duplicare la liberia ,metterla al di fuori della required section del pom.xml ed eliminare lo scope di test.</t>
-    </r>
+    <t>alcune classi presenti nella libreria spring-boot-starter-test   sono usate nel codice sorgente e non solo nel package di test. Dopo la migrazione alla libreria è stato aggiunto lo scope test  obbligatorio per il template perchè si trova in una required section. La soluzione trovata è la seguente: duplicare la liberia ,metterla al di fuori della required section del pom.xml ed eliminare lo scope di test.</t>
   </si>
   <si>
     <t> </t>
@@ -1406,7 +1362,8 @@
     <t>Non è stato importato il file ms_datagovernance.json dal template poiché faceva fallire la build nella fase platform update</t>
   </si>
   <si>
-    <t>20/11/2025: Bamboo non risponde non posso far partire la build</t>
+    <t>20/11/2025: Bamboo non risponde non posso far partire la build
+03/12/2025: Forbidden 403</t>
   </si>
   <si>
     <t>La migrazione è stata completata ma il file build_script.sh deve divergere dal template perché ha l'insallazione di Java 11 rispetto alla Java 21 prevista dal template stesso.
@@ -1419,13 +1376,328 @@
     <t>In corso di sviluppo da parte del team di progetto</t>
   </si>
   <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>In attesa del team di sviluppo per compleatere la migrazione</t>
+  </si>
+  <si>
+    <t>Significato</t>
+  </si>
+  <si>
+    <t>-------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>[Da rifare]</t>
+  </si>
+  <si>
+    <t>L'attività era stata già completata ma per esigenze esterne e.g. cambio branch di partenza si è dovuta ripetere</t>
+  </si>
+  <si>
+    <t>[Rifatto]</t>
+  </si>
+  <si>
+    <t>L'attività precedentemente descritta come "Da rifare" è stata completata con successo</t>
+  </si>
+  <si>
+    <t>[OK]</t>
+  </si>
+  <si>
+    <t>L'attività è stata completata con successo</t>
+  </si>
+  <si>
+    <t>[X]</t>
+  </si>
+  <si>
+    <t>L'attività non è stata completata e si sta lavorando per capire il problema</t>
+  </si>
+  <si>
+    <t>[Non serve]</t>
+  </si>
+  <si>
+    <t>L'attività è stata precedentemente assegnata e poi, successivamente, tolta. Scrivere nel campo "Note" la motivazione</t>
+  </si>
+  <si>
+    <t>Migrato</t>
+  </si>
+  <si>
+    <t>Buildato</t>
+  </si>
+  <si>
+    <t>Deployato</t>
+  </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t>Branch di partenza</t>
+  </si>
+  <si>
+    <t>Branch di migrazione</t>
+  </si>
+  <si>
+    <t>Link Repository</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>-----------</t>
+  </si>
+  <si>
+    <t>------------</t>
+  </si>
+  <si>
+    <t>---------------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>------------------------------------------</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>migrazione/template_to_1.17</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-bp00058-lan-booilcmptanalysis/browse</t>
+  </si>
+  <si>
+    <t>1c3f98fcb8c0c156c5bfa244d452d0bc36d47e15</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTBP00058DEVBOOILCMPTANALYSISAPPLANCUSTOMV1-BUILDSRC-159</t>
+  </si>
+  <si>
+    <t>Da controllare se ci sono conflitti dal branch di sviluppo attuale</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>feature/R4_2025</t>
+  </si>
+  <si>
+    <t>921b7d04a2b88df37c56232f1f41b062457c562f</t>
+  </si>
+  <si>
+    <t>Nessun conflitto in data 20/11/2025</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-bp00182-lan-bogmi/browse</t>
+  </si>
+  <si>
+    <t>74eba688e6952efd130de69e70f0bf9e62d26acb</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTBP00182DEVBOGMIAPPLANCUSTOMV1-39</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-bp00195-lan-bottoperations/browse</t>
+  </si>
+  <si>
+    <t>4df00a2835d07b01d94ff5c4ea5ca0f7d4f0a9e4</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTBP00195DEVBOTTOPERATIONSAPPLANCUSTOMV1-BUILDSRC-206</t>
+  </si>
+  <si>
+    <t>Il team di sviluppo ha preso in carico la migrazione per questo servizio</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-bp00199-lan-bottadministration/browse</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-bp00200-lan-bottcontract/browse</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-bp00212-lan-boinstrmntmgmt/browse</t>
+  </si>
+  <si>
+    <t>9a2aa3d096a47dbb5a5087b702de0cadc0fcc073</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTBP00212DEVBOINSTRMNTMGMTAPPLANCUSTOMV1-158</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>----------</t>
+  </si>
+  <si>
+    <t>---------</t>
+  </si>
+  <si>
+    <t>-------------------------------</t>
+  </si>
+  <si>
+    <t>---------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>migrazione/template_to_3.33</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00399-lan-megmiweb/browse</t>
+  </si>
+  <si>
+    <t>362052c1b01fb760afea0231b53beef85d6c00bf</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00399DEVMEGMIWEBAPPLANCUSTOMV1-43</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00400-lan-megmiboroscopia/browse</t>
+  </si>
+  <si>
+    <t>22244486c8c28a8175927d885301abf9198c2cbb</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00400DEVMEGMIBOROSCOPIAAPPLANCUSTOMV1-47</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00443-lan-megmilogic/browse</t>
+  </si>
+  <si>
+    <t>af56d2698e3722ef718fac8e33237685facfc590</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00443DEVMEGMILOGICAPPLANCUSTOMV1-TES-84</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00489-lan-meargosintegration/browse</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00482-lan-meinstrumentation/browse</t>
+  </si>
+  <si>
+    <t>4c495710bbbeb4e78131a57f0c58ef1404bbb546</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00482DEVMEINSTRUMENTATIONAPPLANCUSTOMV1-424</t>
+  </si>
+  <si>
+    <t>migrazione/template_to_2.36</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00453-lan-mettoperations/browse</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00461-lan-mettcontract/browse</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00462-lan-mettadminstration/browse</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00172-lan-meoilcmptanalysis/browse</t>
+  </si>
+  <si>
+    <t>1dcb2278c4b28d377e67915db640f1081cde0f4e</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00172DEVMEOILCMPTANALYSISAPPLANCUSTOMV1-270</t>
+  </si>
+  <si>
+    <t>feature/DBOIL-0_project-startup</t>
+  </si>
+  <si>
+    <t>8a3439b7dfa38bab9d6db3f87f7a0365c1a2d1d0</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Versione template</t>
+  </si>
+  <si>
+    <t>Link Template Confluence</t>
+  </si>
+  <si>
+    <t>Link Template Git</t>
+  </si>
+  <si>
+    <t>--------------------</t>
+  </si>
+  <si>
+    <t>-------------------</t>
+  </si>
+  <si>
+    <t>--------------</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>https://confluence.springlab.enel.com/spaces/EPLTCSDTP/pages/766770720/pltb030+-+1.17</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLIN-DL00001-MS-PLATFORM/repos/glin-pltb030-lan-tb030/browse</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>https://confluence.springlab.enel.com/spaces/EPLTCSDTP/pages/760514982/pltm003+-+3.33</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLIN-DL00001-MS-PLATFORM/repos/glin-pltm003-lan-tm003/browse</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>https://confluence.springlab.enel.com/spaces/EPLTCSDTP/pages/760522138/pltm006+-+2.36</t>
+  </si>
+  <si>
+    <t>https://bitbucket.springlab.enel.com/projects/GLIN-DL00001-MS-PLATFORM/repos/glin-pltm006-lan-tm006/browse</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Il file data governance non è da inserire perché altrimenti la build si rompe nella fase: **platform update**</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Change Date</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>Template di Orchestration without fileover, no restart, serial execution sync result</t>
@@ -1518,7 +1790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,13 +1814,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1634,8 +1899,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,8 +1991,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1972,12 +2258,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2097,7 +2398,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2113,18 +2414,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,7 +2437,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2148,13 +2449,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2170,22 +2471,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2202,7 +2503,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,22 +2526,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,18 +2550,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2269,7 +2570,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2278,36 +2579,36 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2316,13 +2617,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2334,14 +2638,11 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2349,16 +2650,68 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="55">
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center"/>
       <border>
         <left style="thin">
@@ -2382,9 +2735,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
       <alignment horizontal="general" vertical="center"/>
       <border>
         <left style="thin">
@@ -2408,9 +2758,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
       <alignment horizontal="general" vertical="center"/>
       <border>
         <left style="thin">
@@ -2434,8 +2781,185 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDAF2D0"/>
+        </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" wrapText="1"/>
       <border>
@@ -2460,140 +2984,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDAF2D0"/>
+        </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2617,29 +3027,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FFDAF2D0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2663,29 +3069,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FFDAF2D0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2709,121 +3111,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FFDAF2D0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDAF2D0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDAF2D0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2853,33 +3159,10 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
       <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2895,7 +3178,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2913,7 +3196,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2931,7 +3214,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2949,7 +3232,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2967,7 +3250,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2985,7 +3268,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -3003,8 +3286,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -3023,29 +3306,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF44B3E1"/>
         </left>
@@ -3060,29 +3339,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF44B3E1"/>
         </left>
@@ -3097,29 +3372,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF44B3E1"/>
         </left>
@@ -3134,29 +3405,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF44B3E1"/>
         </left>
@@ -3171,29 +3438,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF44B3E1"/>
         </left>
@@ -3208,29 +3471,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF44B3E1"/>
         </left>
@@ -3245,29 +3504,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom"/>
+      <border>
         <left style="thin">
           <color rgb="FF44B3E1"/>
         </left>
@@ -3282,13 +3537,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
@@ -3298,15 +3546,20 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
@@ -3320,7 +3573,7 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -3330,16 +3583,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3361,21 +3604,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3383,8 +3622,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right/>
         <top/>
@@ -3397,21 +3636,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3419,8 +3654,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3435,31 +3670,27 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3474,31 +3705,27 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3513,21 +3740,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3535,8 +3758,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3551,21 +3774,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3573,8 +3792,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3589,21 +3808,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3611,8 +3826,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3627,21 +3842,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3649,8 +3860,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3665,21 +3876,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3687,8 +3894,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3703,21 +3910,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3725,8 +3928,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3741,21 +3944,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3763,8 +3962,8 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+      <border>
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -3775,13 +3974,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3807,22 +3999,26 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3830,18 +4026,10 @@
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFB5E6A2"/>
-      <color rgb="FFFFF6B0"/>
-      <color rgb="FFFFC000"/>
-      <color rgb="FFDAF2D0"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3854,35 +4042,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49562607-C627-4D9C-BB03-4E78CD34F26E}" name="Table1" displayName="Table1" ref="A34:M39" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52">
-  <autoFilter ref="A34:M39" xr:uid="{49562607-C627-4D9C-BB03-4E78CD34F26E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A34:M39" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="A34:M39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:K39">
     <sortCondition ref="F34:F39"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{DEB12FF4-E807-4B0A-BE48-141BA7C5DF2E}" name="Code" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{EAE49DA7-4E13-485A-8BF1-C000A1511D3B}" name="Name" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{91C567A7-4A8E-4389-8C0B-7B541ACA66F9}" name="Type" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{996186DC-C8B8-4EBE-812A-660E24B1EE1B}" name="Template" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{6F5C524A-1D42-41F1-A3FF-B49D0E350358}" name="ID Template" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{11B14A08-ED10-4A0E-8989-26AF95391954}" name="Project" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{F748A9FD-5851-41C2-8689-AE70F4A5FB30}" name="Priority" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{ABEF446B-C371-4ED8-9727-CE6B996CBC51}" name="Migration Start Date" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{B9104593-2DC1-4F82-9FE3-5D84F103E019}" name="Migration End Date" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{62946CC2-8E9A-4FFE-9792-9B04CA4B536D}" name="Migration Status" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Template" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ID Template" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Project" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Priority" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Migration Start Date" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Migration End Date" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Migration Status" dataDxfId="41">
       <calculatedColumnFormula>IF(ISBLANK(H35), "Not yet started", IF(ISBLANK(I35),"In progress", "Done"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{345DDB7A-6EAD-46A5-8FA6-FC36731171BA}" name="Notes" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{FF17928D-1C35-4176-BEA7-18DD91680AC5}" name="Colonna1" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{85EF8706-F611-4BF3-BD51-8ECA4E4747B3}" name="Colonna2" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Colonna1" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Colonna2" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C8A35B41-614A-475C-8940-A17F73B6CF48}" name="Table3" displayName="Table3" ref="A1:O108" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35">
-  <autoFilter ref="A1:O108" xr:uid="{C8A35B41-614A-475C-8940-A17F73B6CF48}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:O108" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A1:O108" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="Conceptual Solar"/>
@@ -3890,45 +4078,45 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6A22D227-A0E8-408F-842E-3A8733702913}" name="Code" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{4082AB14-27B3-4100-BB63-67BDD841752C}" name="Name" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{A3C8ADF7-8C81-4E73-8A2D-E1AEF9533139}" name="Type" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{D3F8DA7B-1AAA-4F37-BF39-8BA24A1B2F36}" name="Template" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{3F2E0ABC-7FCF-405C-8E65-3EB3DD006270}" name="Project" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{64971342-506B-43EC-B6CF-4F2DDD917969}" name="Usa eventi" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{8E7E4410-9B6B-4457-B575-821BEB83C58D}" name="Java Version" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{D7126A8F-8451-4B33-8521-A7BCEE879026}" name="Priority" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{4481C19E-C110-4F34-A24B-70253C7D39CA}" name="Migration Start Date" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{6623DC62-EC71-47DB-92DD-E5DD3C652875}" name="Migration End Date" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{9D2E4954-CB80-4641-B293-DCEFF953700D}" name="Migration Status" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{33EF9584-574E-4BD3-A013-CBD280643F3D}" name="Migration Notes" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{546E3E58-01C4-4613-8E67-54496E484353}" name="Owner" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{FF431CB4-A5DE-46A7-B83C-FA821DDEE07E}" name="Internal Notes" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{E75ED4F9-FFFA-4505-A7F9-78381D88A84A}" name="External Requests" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Code" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Template" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Project" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Usa eventi" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Java Version" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Priority" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Migration Start Date" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Migration End Date" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Migration Status" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Migration Notes" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Owner" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Internal Notes" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="External Requests" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F61C3BEC-E5F7-4A56-ABA3-0597D80DFD68}" name="Table2" displayName="Table2" ref="A1:O16" totalsRowShown="0" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:O16" xr:uid="{F61C3BEC-E5F7-4A56-ABA3-0597D80DFD68}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:O16" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:O16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{64DFCDE5-F854-4932-B6C1-2F876D7D463C}" name="Code" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{4857A328-CA65-46EB-803E-A4BD1C89B6E1}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1877DAE6-EFA6-4F6D-B7C5-AFB09F163C61}" name="Type" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{D2CC8554-8234-473E-A0A6-733FCCA56DB9}" name="Template" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{2CECC46F-E4A9-4071-9695-2FE9D0E8316A}" name="Project" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{862877C0-CE10-4504-9ABA-4F7ECFD92CA1}" name="Usa Eventi" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{B28BC736-A15F-43A5-BC53-203509B24B86}" name="Java Version" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{A5E85BB7-FE02-4A93-8C24-496C051A1CB3}" name="Priority" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{4456D976-9782-4F24-8DF7-C9A984239A39}" name="Migration Start Date" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{971F6BFE-332D-4375-B464-437719B74C7F}" name="Migration End Date" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{9B41521A-F19F-4D4A-85BB-95D8838ED2DA}" name="Migration Status" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{A5645F26-C464-4E95-8160-0659176C90E4}" name="Migration Notes" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{0890E71F-98A3-4643-8500-DD1B79797B1A}" name="Owner" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{A14BD8E7-BF6E-4BFE-9821-6DEE1BA87843}" name="Internal Notes" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{6E07075B-72EC-4C51-909B-309FD4B98CA6}" name="External Requests" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Code" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Template" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Project" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Usa Eventi" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Java Version" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Priority" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Migration Start Date" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Migration End Date" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Migration Status" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Migration Notes" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Owner" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Internal Notes" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="External Requests" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4255,7 +4443,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
@@ -4272,8 +4460,8 @@
     <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4313,7 +4501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
@@ -4355,7 +4543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -4397,7 +4585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -4439,7 +4627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30">
+    <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -4475,7 +4663,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>32</v>
       </c>
@@ -4517,7 +4705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>34</v>
       </c>
@@ -4559,7 +4747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>39</v>
       </c>
@@ -4601,7 +4789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>41</v>
       </c>
@@ -4643,7 +4831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>43</v>
       </c>
@@ -4685,7 +4873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>49</v>
       </c>
@@ -4725,7 +4913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30">
+    <row r="12" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
@@ -4761,7 +4949,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>58</v>
       </c>
@@ -4801,7 +4989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45">
+    <row r="14" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
@@ -4837,7 +5025,7 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:15" ht="15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>66</v>
       </c>
@@ -4878,7 +5066,7 @@
       </c>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:15" ht="45">
+    <row r="16" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
@@ -4914,7 +5102,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:15" ht="15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>70</v>
       </c>
@@ -4954,7 +5142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>72</v>
       </c>
@@ -4994,7 +5182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>76</v>
       </c>
@@ -5034,7 +5222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>78</v>
       </c>
@@ -5074,10 +5262,9 @@
       <c r="M20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N20"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" ht="45">
+    <row r="21" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>82</v>
       </c>
@@ -5117,9 +5304,8 @@
       <c r="M21" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:15" ht="15">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>85</v>
       </c>
@@ -5159,7 +5345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>87</v>
       </c>
@@ -5199,7 +5385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>89</v>
       </c>
@@ -5241,7 +5427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30">
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>94</v>
       </c>
@@ -5282,7 +5468,7 @@
       <c r="M25" s="35"/>
       <c r="O25" s="43"/>
     </row>
-    <row r="26" spans="1:15" ht="45">
+    <row r="26" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -5324,7 +5510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30">
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>100</v>
       </c>
@@ -5356,7 +5542,7 @@
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="1:15" ht="30">
+    <row r="28" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>104</v>
       </c>
@@ -5392,7 +5578,7 @@
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:15" ht="30">
+    <row r="29" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>106</v>
       </c>
@@ -5428,7 +5614,7 @@
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:15" ht="30">
+    <row r="30" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>108</v>
       </c>
@@ -5464,7 +5650,7 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="1:15" ht="45">
+    <row r="31" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>110</v>
       </c>
@@ -5505,7 +5691,7 @@
       <c r="M31" s="35"/>
       <c r="O31" s="43"/>
     </row>
-    <row r="32" spans="1:15" ht="30">
+    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>117</v>
       </c>
@@ -5541,7 +5727,7 @@
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="34" spans="1:14" ht="15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +5768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="6" customFormat="1" ht="15">
+    <row r="35" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>122</v>
       </c>
@@ -5620,7 +5806,7 @@
       <c r="L35" s="39"/>
       <c r="M35" s="42"/>
     </row>
-    <row r="36" spans="1:14" s="6" customFormat="1" ht="15">
+    <row r="36" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>126</v>
       </c>
@@ -5658,7 +5844,7 @@
       <c r="L36" s="39"/>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:14" s="6" customFormat="1" ht="15">
+    <row r="37" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>131</v>
       </c>
@@ -5696,7 +5882,7 @@
       <c r="L37" s="39"/>
       <c r="M37" s="42"/>
     </row>
-    <row r="38" spans="1:14" s="6" customFormat="1" ht="105">
+    <row r="38" spans="1:13" s="6" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>133</v>
       </c>
@@ -5734,7 +5920,7 @@
       <c r="L38" s="39"/>
       <c r="M38" s="42"/>
     </row>
-    <row r="39" spans="1:14" s="6" customFormat="1" ht="124.5" customHeight="1">
+    <row r="39" spans="1:13" s="6" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>136</v>
       </c>
@@ -5775,15 +5961,14 @@
       <c r="M39" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N39"/>
-    </row>
-    <row r="40" spans="1:14" ht="15">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5792,14 +5977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC58EFE-1A7B-4420-9A84-732659C0D8B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -5824,7 +6009,7 @@
     <col min="26" max="26" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" customHeight="1">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -5902,7 +6087,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="57" hidden="1">
+    <row r="2" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>157</v>
       </c>
@@ -5980,7 +6165,7 @@
         <v>107</v>
       </c>
       <c r="Y2" s="47">
-        <f xml:space="preserve"> ROWS(Table3[Code]) - W2</f>
+        <f>ROWS(Table3[Code]) - W2</f>
         <v>99</v>
       </c>
       <c r="Z2" s="48">
@@ -5988,7 +6173,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="42.75" hidden="1">
+    <row r="3" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>13</v>
       </c>
@@ -6044,7 +6229,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="42.75" hidden="1">
+    <row r="4" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>25</v>
       </c>
@@ -6098,7 +6283,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="57">
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>169</v>
       </c>
@@ -6130,7 +6315,7 @@
       <c r="K5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="142" t="s">
+      <c r="L5" s="143" t="s">
         <v>172</v>
       </c>
       <c r="M5" s="52" t="s">
@@ -6152,7 +6337,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="57" hidden="1">
+    <row r="6" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>174</v>
       </c>
@@ -6208,7 +6393,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="57" hidden="1">
+    <row r="7" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>39</v>
       </c>
@@ -6264,7 +6449,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="57" hidden="1">
+    <row r="8" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>180</v>
       </c>
@@ -6318,7 +6503,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="199.5" hidden="1">
+    <row r="9" spans="1:26" ht="210" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
         <v>183</v>
       </c>
@@ -6370,7 +6555,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="42.75" hidden="1">
+    <row r="10" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>23</v>
       </c>
@@ -6424,7 +6609,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="57" hidden="1">
+    <row r="11" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>41</v>
       </c>
@@ -6480,7 +6665,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="57" hidden="1">
+    <row r="12" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>34</v>
       </c>
@@ -6536,7 +6721,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="30" hidden="1">
+    <row r="13" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>27</v>
       </c>
@@ -6584,7 +6769,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="28.5" hidden="1">
+    <row r="14" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>32</v>
       </c>
@@ -6638,7 +6823,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="71.25" hidden="1">
+    <row r="15" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>194</v>
       </c>
@@ -6692,7 +6877,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" hidden="1">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>198</v>
       </c>
@@ -6746,7 +6931,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="42.75" hidden="1">
+    <row r="17" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>204</v>
       </c>
@@ -6802,7 +6987,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" hidden="1">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>206</v>
       </c>
@@ -6856,7 +7041,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" hidden="1">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>54</v>
       </c>
@@ -6910,7 +7095,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" hidden="1">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>208</v>
       </c>
@@ -6964,7 +7149,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" hidden="1">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>211</v>
       </c>
@@ -7018,7 +7203,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" hidden="1">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>215</v>
       </c>
@@ -7072,7 +7257,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" hidden="1">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>217</v>
       </c>
@@ -7126,7 +7311,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" hidden="1">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>49</v>
       </c>
@@ -7180,7 +7365,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" hidden="1">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>220</v>
       </c>
@@ -7232,7 +7417,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" hidden="1">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>222</v>
       </c>
@@ -7286,7 +7471,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="28.5" hidden="1">
+    <row r="27" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
         <v>225</v>
       </c>
@@ -7336,7 +7521,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" hidden="1">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>230</v>
       </c>
@@ -7390,7 +7575,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="28.5" hidden="1">
+    <row r="29" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>232</v>
       </c>
@@ -7440,7 +7625,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="42.75" hidden="1">
+    <row r="30" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
         <v>234</v>
       </c>
@@ -7490,7 +7675,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" hidden="1">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>237</v>
       </c>
@@ -7544,7 +7729,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" hidden="1">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>239</v>
       </c>
@@ -7598,7 +7783,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" hidden="1">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>242</v>
       </c>
@@ -7652,7 +7837,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" hidden="1">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>245</v>
       </c>
@@ -7704,7 +7889,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35" spans="1:26" hidden="1">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>248</v>
       </c>
@@ -7758,7 +7943,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" spans="1:26" hidden="1">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>251</v>
       </c>
@@ -7812,7 +7997,7 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="1:26" hidden="1">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>253</v>
       </c>
@@ -7866,7 +8051,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" hidden="1">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>255</v>
       </c>
@@ -7918,7 +8103,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" spans="1:26" hidden="1">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
         <v>58</v>
       </c>
@@ -7970,7 +8155,7 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40" spans="1:26" hidden="1">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>259</v>
       </c>
@@ -8024,7 +8209,7 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="1:26" hidden="1">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>97</v>
       </c>
@@ -8078,7 +8263,7 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="1:26" hidden="1">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>94</v>
       </c>
@@ -8132,7 +8317,7 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="78" hidden="1" customHeight="1">
+    <row r="43" spans="1:26" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="84" t="s">
         <v>108</v>
       </c>
@@ -8186,7 +8371,7 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="80.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:26" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
         <v>68</v>
       </c>
@@ -8238,7 +8423,7 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" spans="1:26" hidden="1">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>266</v>
       </c>
@@ -8290,7 +8475,7 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" spans="1:26" hidden="1">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>89</v>
       </c>
@@ -8344,7 +8529,7 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47" spans="1:26" ht="28.5">
+    <row r="47" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>268</v>
       </c>
@@ -8398,7 +8583,7 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48" spans="1:26" ht="65.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:26" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84" t="s">
         <v>104</v>
       </c>
@@ -8452,7 +8637,7 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49" spans="1:26" hidden="1">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>85</v>
       </c>
@@ -8506,7 +8691,7 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" hidden="1">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>70</v>
       </c>
@@ -8558,7 +8743,7 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" ht="75.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:26" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>63</v>
       </c>
@@ -8610,7 +8795,7 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" hidden="1">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>273</v>
       </c>
@@ -8664,7 +8849,7 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" hidden="1">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>87</v>
       </c>
@@ -8718,7 +8903,7 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" hidden="1">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>66</v>
       </c>
@@ -8772,7 +8957,7 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" hidden="1">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>117</v>
       </c>
@@ -8826,7 +9011,7 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" hidden="1">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>276</v>
       </c>
@@ -8880,7 +9065,7 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" hidden="1">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>278</v>
       </c>
@@ -8932,7 +9117,7 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" ht="28.5" hidden="1">
+    <row r="58" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="84" t="s">
         <v>106</v>
       </c>
@@ -8980,7 +9165,7 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59" spans="1:26" hidden="1">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>280</v>
       </c>
@@ -9032,7 +9217,7 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" spans="1:26" hidden="1">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>282</v>
       </c>
@@ -9086,7 +9271,7 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61" spans="1:26" hidden="1">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>284</v>
       </c>
@@ -9140,7 +9325,7 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62" spans="1:26" hidden="1">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>286</v>
       </c>
@@ -9192,7 +9377,7 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63" spans="1:26" hidden="1">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
         <v>290</v>
       </c>
@@ -9244,7 +9429,7 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64" spans="1:26" hidden="1">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>292</v>
       </c>
@@ -9294,7 +9479,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65" spans="1:26" ht="57" hidden="1">
+    <row r="65" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
         <v>294</v>
       </c>
@@ -9352,7 +9537,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" spans="1:26" hidden="1">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
         <v>300</v>
       </c>
@@ -9404,7 +9589,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67" spans="1:26" hidden="1">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>78</v>
       </c>
@@ -9458,7 +9643,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" spans="1:26" hidden="1">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
         <v>72</v>
       </c>
@@ -9512,7 +9697,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" spans="1:26" hidden="1">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
         <v>302</v>
       </c>
@@ -9566,7 +9751,7 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70" spans="1:26" ht="28.5" hidden="1">
+    <row r="70" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>110</v>
       </c>
@@ -9620,7 +9805,7 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71" spans="1:26" hidden="1">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>76</v>
       </c>
@@ -9674,7 +9859,7 @@
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
     </row>
-    <row r="72" spans="1:26" hidden="1">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="58" t="s">
         <v>133</v>
       </c>
@@ -9724,7 +9909,7 @@
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
-    <row r="73" spans="1:26" hidden="1">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="58" t="s">
         <v>306</v>
       </c>
@@ -9774,7 +9959,7 @@
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
     </row>
-    <row r="74" spans="1:26" hidden="1">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
         <v>309</v>
       </c>
@@ -9828,7 +10013,7 @@
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
     </row>
-    <row r="75" spans="1:26" hidden="1">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
         <v>131</v>
       </c>
@@ -9878,7 +10063,7 @@
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76" spans="1:26" hidden="1">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="58" t="s">
         <v>126</v>
       </c>
@@ -9926,7 +10111,7 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" spans="1:26" ht="51" hidden="1" customHeight="1">
+    <row r="77" spans="1:26" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
         <v>311</v>
       </c>
@@ -9980,7 +10165,7 @@
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
     </row>
-    <row r="78" spans="1:26" hidden="1">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
         <v>315</v>
       </c>
@@ -10036,7 +10221,7 @@
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
     </row>
-    <row r="79" spans="1:26" hidden="1">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
         <v>136</v>
       </c>
@@ -10090,7 +10275,7 @@
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
     </row>
-    <row r="80" spans="1:26" ht="38.25" hidden="1" customHeight="1">
+    <row r="80" spans="1:26" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
         <v>318</v>
       </c>
@@ -10146,7 +10331,7 @@
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
     </row>
-    <row r="81" spans="1:26" ht="27.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="58" t="s">
         <v>122</v>
       </c>
@@ -10196,7 +10381,7 @@
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82" spans="1:26" hidden="1">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
         <v>322</v>
       </c>
@@ -10250,7 +10435,7 @@
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83" spans="1:26" hidden="1">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="54" t="s">
         <v>324</v>
       </c>
@@ -10304,7 +10489,7 @@
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
     </row>
-    <row r="84" spans="1:26" ht="28.5" hidden="1">
+    <row r="84" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
         <v>326</v>
       </c>
@@ -10358,7 +10543,7 @@
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
     </row>
-    <row r="85" spans="1:26" hidden="1">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="s">
         <v>329</v>
       </c>
@@ -10408,7 +10593,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
     </row>
-    <row r="86" spans="1:26" hidden="1">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>332</v>
       </c>
@@ -10456,7 +10641,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87" spans="1:26" ht="42.75" hidden="1">
+    <row r="87" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
         <v>335</v>
       </c>
@@ -10508,7 +10693,7 @@
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
     </row>
-    <row r="88" spans="1:26" hidden="1">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
         <v>337</v>
       </c>
@@ -10558,7 +10743,7 @@
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
     </row>
-    <row r="89" spans="1:26" hidden="1">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="s">
         <v>339</v>
       </c>
@@ -10608,7 +10793,7 @@
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
     </row>
-    <row r="90" spans="1:26" hidden="1">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="s">
         <v>341</v>
       </c>
@@ -10658,7 +10843,7 @@
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
     </row>
-    <row r="91" spans="1:26" hidden="1">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="s">
         <v>343</v>
       </c>
@@ -10708,7 +10893,7 @@
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
     </row>
-    <row r="92" spans="1:26" hidden="1">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="s">
         <v>345</v>
       </c>
@@ -10758,7 +10943,7 @@
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
     </row>
-    <row r="93" spans="1:26" hidden="1">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="78" t="s">
         <v>347</v>
       </c>
@@ -10810,7 +10995,7 @@
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
     </row>
-    <row r="94" spans="1:26" hidden="1">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="78" t="s">
         <v>351</v>
       </c>
@@ -10860,7 +11045,7 @@
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
     </row>
-    <row r="95" spans="1:26" hidden="1">
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="78" t="s">
         <v>353</v>
       </c>
@@ -10912,7 +11097,7 @@
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
     </row>
-    <row r="96" spans="1:26" hidden="1">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="78" t="s">
         <v>356</v>
       </c>
@@ -10962,7 +11147,7 @@
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97" spans="1:26" ht="28.5" hidden="1">
+    <row r="97" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
         <v>100</v>
       </c>
@@ -11014,7 +11199,7 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
     </row>
-    <row r="98" spans="1:26" hidden="1">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
         <v>43</v>
       </c>
@@ -11064,7 +11249,7 @@
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" hidden="1">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
         <v>82</v>
       </c>
@@ -11116,7 +11301,7 @@
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
     </row>
-    <row r="100" spans="1:26" ht="28.5" hidden="1">
+    <row r="100" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45" t="s">
         <v>361</v>
       </c>
@@ -11168,7 +11353,7 @@
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
     </row>
-    <row r="101" spans="1:26" hidden="1">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="97" t="s">
         <v>365</v>
       </c>
@@ -11222,7 +11407,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
     </row>
-    <row r="102" spans="1:26" hidden="1">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="110" t="s">
         <v>369</v>
       </c>
@@ -11264,7 +11449,7 @@
       <c r="O102" s="69"/>
       <c r="P102" s="8"/>
     </row>
-    <row r="103" spans="1:26" hidden="1">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="100" t="s">
         <v>374</v>
       </c>
@@ -11304,7 +11489,7 @@
       <c r="O103" s="69"/>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:26" hidden="1">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="110" t="s">
         <v>378</v>
       </c>
@@ -11346,7 +11531,7 @@
       <c r="O104" s="69"/>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="1:26" hidden="1">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="112" t="s">
         <v>381</v>
       </c>
@@ -11388,7 +11573,7 @@
       <c r="O105" s="69"/>
       <c r="P105" s="8"/>
     </row>
-    <row r="106" spans="1:26" hidden="1">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="112" t="s">
         <v>384</v>
       </c>
@@ -11430,7 +11615,7 @@
       <c r="O106" s="69"/>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:26" hidden="1">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="s">
         <v>386</v>
       </c>
@@ -11470,7 +11655,7 @@
       <c r="O107" s="69"/>
       <c r="P107" s="8"/>
     </row>
-    <row r="108" spans="1:26" hidden="1">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="s">
         <v>391</v>
       </c>
@@ -11510,30 +11695,30 @@
       <c r="O108" s="91"/>
       <c r="P108" s="8"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P110" s="8"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="16:16">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="16:16">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="16:16">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P115" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:L58">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
       <formula>NOT(ISERROR(SEARCH("$K$58 = ""In progress""",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11545,13 +11730,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4AA9DC-9C30-46BB-8CAB-7198767B7576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
@@ -11569,7 +11754,7 @@
     <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" customHeight="1">
+    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -11625,7 +11810,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28.5" hidden="1">
+    <row r="2" spans="1:23" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>13</v>
       </c>
@@ -11687,7 +11872,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="28.5" hidden="1">
+    <row r="3" spans="1:23" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>25</v>
       </c>
@@ -11729,7 +11914,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>169</v>
       </c>
@@ -11771,7 +11956,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>39</v>
       </c>
@@ -11810,7 +11995,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="28.5" hidden="1">
+    <row r="6" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>23</v>
       </c>
@@ -11850,7 +12035,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>41</v>
       </c>
@@ -11889,7 +12074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>34</v>
       </c>
@@ -11928,7 +12113,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" hidden="1">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>27</v>
       </c>
@@ -11959,7 +12144,7 @@
       <c r="L9" s="88"/>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>32</v>
       </c>
@@ -11998,7 +12183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>217</v>
       </c>
@@ -12033,7 +12218,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>220</v>
       </c>
@@ -12071,7 +12256,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>300</v>
       </c>
@@ -12106,7 +12291,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>211</v>
       </c>
@@ -12143,7 +12328,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>54</v>
       </c>
@@ -12180,7 +12365,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>49</v>
       </c>
@@ -12219,7 +12404,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>278</v>
       </c>
@@ -12256,7 +12441,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>225</v>
       </c>
@@ -12294,7 +12479,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>232</v>
       </c>
@@ -12332,7 +12517,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>234</v>
       </c>
@@ -12370,7 +12555,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>280</v>
       </c>
@@ -12407,7 +12592,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="28.5" hidden="1">
+    <row r="22" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>58</v>
       </c>
@@ -12447,7 +12632,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="28.5" hidden="1">
+    <row r="23" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>97</v>
       </c>
@@ -12485,7 +12670,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.5" hidden="1">
+    <row r="24" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>94</v>
       </c>
@@ -12525,7 +12710,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>290</v>
       </c>
@@ -12562,7 +12747,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>208</v>
       </c>
@@ -12597,7 +12782,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="28.5" hidden="1">
+    <row r="27" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>89</v>
       </c>
@@ -12635,7 +12820,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>268</v>
       </c>
@@ -12677,7 +12862,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>292</v>
       </c>
@@ -12712,7 +12897,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>85</v>
       </c>
@@ -12751,7 +12936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="84" t="s">
         <v>108</v>
       </c>
@@ -12782,7 +12967,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" hidden="1">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="84" t="s">
         <v>68</v>
       </c>
@@ -12813,7 +12998,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="28.5" hidden="1">
+    <row r="33" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>273</v>
       </c>
@@ -12853,7 +13038,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1">
+    <row r="34" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>87</v>
       </c>
@@ -12892,7 +13077,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
         <v>104</v>
       </c>
@@ -12923,7 +13108,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>117</v>
       </c>
@@ -12965,7 +13150,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>276</v>
       </c>
@@ -13004,7 +13189,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1">
+    <row r="38" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>70</v>
       </c>
@@ -13044,7 +13229,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="19.5" hidden="1" customHeight="1">
+    <row r="39" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="84" t="s">
         <v>106</v>
       </c>
@@ -13075,7 +13260,7 @@
       <c r="L39" s="88"/>
       <c r="M39" s="53"/>
     </row>
-    <row r="40" spans="1:14" ht="15" hidden="1">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84" t="s">
         <v>63</v>
       </c>
@@ -13106,7 +13291,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1">
+    <row r="41" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="132" t="s">
         <v>286</v>
       </c>
@@ -13141,7 +13326,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1">
+    <row r="42" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>66</v>
       </c>
@@ -13181,7 +13366,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>242</v>
       </c>
@@ -13221,7 +13406,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>294</v>
       </c>
@@ -13258,7 +13443,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>315</v>
       </c>
@@ -13298,7 +13483,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>78</v>
       </c>
@@ -13337,7 +13522,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>72</v>
       </c>
@@ -13376,7 +13561,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>302</v>
       </c>
@@ -13413,7 +13598,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>110</v>
       </c>
@@ -13455,7 +13640,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>76</v>
       </c>
@@ -13494,7 +13679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>133</v>
       </c>
@@ -13530,7 +13715,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
         <v>306</v>
       </c>
@@ -13566,7 +13751,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
         <v>131</v>
       </c>
@@ -13602,7 +13787,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
         <v>126</v>
       </c>
@@ -13638,7 +13823,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>311</v>
       </c>
@@ -13677,7 +13862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>198</v>
       </c>
@@ -13714,7 +13899,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>136</v>
       </c>
@@ -13751,7 +13936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
         <v>122</v>
       </c>
@@ -13787,7 +13972,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="78" t="s">
         <v>347</v>
       </c>
@@ -13827,7 +14012,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
         <v>351</v>
       </c>
@@ -13867,7 +14052,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="78" t="s">
         <v>353</v>
       </c>
@@ -13905,7 +14090,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
         <v>356</v>
       </c>
@@ -13942,7 +14127,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
         <v>100</v>
       </c>
@@ -13980,7 +14165,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45" t="s">
         <v>43</v>
       </c>
@@ -14020,7 +14205,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45" t="s">
         <v>82</v>
       </c>
@@ -14058,7 +14243,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>369</v>
       </c>
@@ -14095,7 +14280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="110" t="s">
         <v>374</v>
       </c>
@@ -14132,7 +14317,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="110" t="s">
         <v>378</v>
       </c>
@@ -14169,7 +14354,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="129" t="s">
         <v>381</v>
       </c>
@@ -14206,7 +14391,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="129" t="s">
         <v>384</v>
       </c>
@@ -14243,7 +14428,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="129" t="s">
         <v>386</v>
       </c>
@@ -14280,7 +14465,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="137" t="s">
         <v>391</v>
       </c>
@@ -14318,7 +14503,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M72" xr:uid="{9B4AA9DC-9C30-46BB-8CAB-7198767B7576}">
+  <autoFilter ref="A1:M72" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="Conceptual Solar"/>
@@ -14330,12 +14515,12 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A39:F39">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="$K$58 = &quot;In progress&quot;">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="$K$58 = &quot;In progress&quot;">
       <formula>NOT(ISERROR(SEARCH("$K$58 = ""In progress""",A39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:L39">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
       <formula>NOT(ISERROR(SEARCH("$K$58 = ""In progress""",H39)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14344,41 +14529,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714B8CFF-EC55-4B1B-A385-115DA4EABB2A}">
-  <dimension ref="A1:AA17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" customWidth="1"/>
-    <col min="25" max="25" width="23.28515625" customWidth="1"/>
-    <col min="26" max="26" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="126" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="128" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="247" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="67" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" customWidth="1"/>
+    <col min="18" max="18" width="36" customWidth="1"/>
+    <col min="19" max="19" width="25" customWidth="1"/>
+    <col min="20" max="20" width="35" customWidth="1"/>
+    <col min="21" max="21" width="39" customWidth="1"/>
+    <col min="22" max="22" width="32" customWidth="1"/>
+    <col min="23" max="23" width="39" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="25" max="25" width="28" customWidth="1"/>
+    <col min="26" max="26" width="29" customWidth="1"/>
+    <col min="27" max="27" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" customHeight="1">
+    <row r="1" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
@@ -14455,49 +14644,51 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" ht="72.75">
-      <c r="A2" s="144" t="s">
+    <row r="2" spans="1:27" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145" t="s">
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146" t="s">
         <v>428</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145" t="s">
-        <v>389</v>
-      </c>
-      <c r="L2" s="146" t="s">
+      <c r="J2" s="158">
+        <v>45728</v>
+      </c>
+      <c r="K2" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="147" t="s">
         <v>429</v>
       </c>
-      <c r="M2" s="145" t="s">
+      <c r="M2" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
       <c r="Q2" s="140">
         <f>COUNTIF(K2:K16,"Done")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" s="140">
         <f>COUNTIF(K2:K16, "In progress")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S2" s="140">
         <f>COUNTIF(K2:K16, "")</f>
@@ -14527,45 +14718,45 @@
       </c>
       <c r="Z2" s="141">
         <f>ROUND(Q2/Y2, 2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="57.75">
-      <c r="A3" s="144" t="s">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145" t="s">
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145" t="s">
+      <c r="J3" s="159"/>
+      <c r="K3" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="147" t="s">
         <v>432</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -14577,57 +14768,57 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="57.75">
-      <c r="A4" s="144" t="s">
+    <row r="4" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145" t="s">
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145" t="s">
+      <c r="J4" s="159"/>
+      <c r="K4" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="L4" s="146" t="s">
+      <c r="L4" s="147" t="s">
         <v>432</v>
       </c>
-      <c r="M4" s="145" t="s">
+      <c r="M4" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-    </row>
-    <row r="5" spans="1:27" ht="57.75">
-      <c r="A5" s="150" t="s">
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+    </row>
+    <row r="5" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="142" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="151" t="s">
@@ -14638,7 +14829,7 @@
       <c r="I5" s="151" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="151"/>
+      <c r="J5" s="160"/>
       <c r="K5" s="151" t="s">
         <v>389</v>
       </c>
@@ -14653,367 +14844,1596 @@
       </c>
       <c r="O5" s="151"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" ht="101.25">
-      <c r="A6" s="148" t="s">
+    <row r="6" spans="1:27" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="147" t="s">
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="148" t="s">
         <v>434</v>
       </c>
-      <c r="M6" s="149"/>
-      <c r="N6" s="147" t="s">
+      <c r="M6" s="150"/>
+      <c r="N6" s="148" t="s">
         <v>435</v>
       </c>
-      <c r="O6" s="149"/>
-    </row>
-    <row r="7" spans="1:27" ht="29.25">
-      <c r="A7" s="148" t="s">
+      <c r="O6" s="150"/>
+    </row>
+    <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="147" t="s">
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-    </row>
-    <row r="8" spans="1:27" ht="29.25">
-      <c r="A8" s="148" t="s">
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+    </row>
+    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="149" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="147" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" ht="29.25">
-      <c r="A9" s="148" t="s">
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="147" t="s">
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="M9" s="149"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-    </row>
-    <row r="10" spans="1:27" ht="29.25">
-      <c r="A10" s="148" t="s">
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+    </row>
+    <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="147" t="s">
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-    </row>
-    <row r="11" spans="1:27" ht="29.25">
-      <c r="A11" s="148" t="s">
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+    </row>
+    <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="147" t="s">
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="149"/>
-    </row>
-    <row r="12" spans="1:27" ht="29.25">
-      <c r="A12" s="148" t="s">
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+    </row>
+    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="147" t="s">
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-    </row>
-    <row r="13" spans="1:27" ht="15">
-      <c r="A13" s="144" t="s">
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="144" t="s">
+      <c r="E13" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145" t="s">
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145" t="s">
+      <c r="J13" s="158">
+        <v>45728</v>
+      </c>
+      <c r="K13" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="147"/>
+      <c r="M13" s="146" t="s">
+        <v>437</v>
+      </c>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+    </row>
+    <row r="14" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="145" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="145" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="J14" s="158">
+        <v>45728</v>
+      </c>
+      <c r="K14" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="147" t="s">
+        <v>432</v>
+      </c>
+      <c r="M14" s="146" t="s">
+        <v>430</v>
+      </c>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="145" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="145" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="J15" s="159"/>
+      <c r="K15" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="L13" s="146"/>
-      <c r="M13" s="145" t="s">
+      <c r="L15" s="147" t="s">
+        <v>438</v>
+      </c>
+      <c r="M15" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-    </row>
-    <row r="14" spans="1:27" ht="57.75">
-      <c r="A14" s="144" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="144" t="s">
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="145" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="144" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145" t="s">
+      <c r="D16" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="145" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145" t="s">
+      <c r="J16" s="159"/>
+      <c r="K16" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="L14" s="146" t="s">
-        <v>432</v>
-      </c>
-      <c r="M14" s="145" t="s">
+      <c r="L16" s="147" t="s">
+        <v>438</v>
+      </c>
+      <c r="M16" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-    </row>
-    <row r="15" spans="1:27" ht="15">
-      <c r="A15" s="144" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="144" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="144" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145" t="s">
-        <v>431</v>
-      </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145" t="s">
-        <v>389</v>
-      </c>
-      <c r="L15" s="146"/>
-      <c r="M15" s="145" t="s">
-        <v>430</v>
-      </c>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-    </row>
-    <row r="16" spans="1:27" ht="15">
-      <c r="A16" s="144" t="s">
-        <v>276</v>
-      </c>
-      <c r="B16" s="144" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="144" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145" t="s">
-        <v>431</v>
-      </c>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145" t="s">
-        <v>389</v>
-      </c>
-      <c r="L16" s="146"/>
-      <c r="M16" s="145" t="s">
-        <v>430</v>
-      </c>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-    </row>
-    <row r="17" spans="1:1" ht="15">
+      <c r="N16" s="146"/>
+      <c r="O16" s="146"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="153"/>
+      <c r="B20" s="153" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="154" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="154" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="154" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="154" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="154" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="154" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="154" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" s="154" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" s="154" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="153" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="153" t="s">
+        <v>453</v>
+      </c>
+      <c r="C29" s="153" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="153" t="s">
+        <v>455</v>
+      </c>
+      <c r="E29" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="153" t="s">
+        <v>456</v>
+      </c>
+      <c r="G29" s="153" t="s">
+        <v>457</v>
+      </c>
+      <c r="H29" s="153" t="s">
+        <v>458</v>
+      </c>
+      <c r="I29" s="153" t="s">
+        <v>459</v>
+      </c>
+      <c r="J29" s="153" t="s">
+        <v>460</v>
+      </c>
+      <c r="K29" s="153" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="154" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" s="154" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30" s="154" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30" s="154" t="s">
+        <v>462</v>
+      </c>
+      <c r="E30" s="154" t="s">
+        <v>463</v>
+      </c>
+      <c r="F30" s="154" t="s">
+        <v>464</v>
+      </c>
+      <c r="G30" s="154" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="I30" s="154" t="s">
+        <v>467</v>
+      </c>
+      <c r="J30" s="154" t="s">
+        <v>468</v>
+      </c>
+      <c r="K30" s="154" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="155" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" s="154" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="154" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G31" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H31" s="154" t="s">
+        <v>472</v>
+      </c>
+      <c r="I31" s="154" t="s">
+        <v>473</v>
+      </c>
+      <c r="J31" s="154" t="s">
+        <v>474</v>
+      </c>
+      <c r="K31" s="154" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="156" t="s">
+        <v>444</v>
+      </c>
+      <c r="B32" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D32" s="154" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="154" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H32" s="154" t="s">
+        <v>472</v>
+      </c>
+      <c r="I32" s="154" t="s">
+        <v>478</v>
+      </c>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B33" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C33" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G33" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H33" s="154" t="s">
+        <v>480</v>
+      </c>
+      <c r="I33" s="154" t="s">
+        <v>481</v>
+      </c>
+      <c r="J33" s="157" t="s">
+        <v>482</v>
+      </c>
+      <c r="K33" s="154"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B34" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C34" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D34" s="154" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G34" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H34" s="154" t="s">
+        <v>483</v>
+      </c>
+      <c r="I34" s="154" t="s">
+        <v>484</v>
+      </c>
+      <c r="J34" s="154" t="s">
+        <v>485</v>
+      </c>
+      <c r="K34" s="154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B35" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D35" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G35" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H35" s="154" t="s">
+        <v>487</v>
+      </c>
+      <c r="I35" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J35" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K35" s="154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C36" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D36" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G36" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H36" s="154" t="s">
+        <v>489</v>
+      </c>
+      <c r="I36" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J36" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K36" s="154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D37" s="154" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G37" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="154" t="s">
+        <v>490</v>
+      </c>
+      <c r="I37" s="154" t="s">
+        <v>491</v>
+      </c>
+      <c r="J37" s="157" t="s">
+        <v>492</v>
+      </c>
+      <c r="K37" s="154"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="154" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="C38" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="154" t="s">
+        <v>495</v>
+      </c>
+      <c r="E38" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="F38" s="154" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="154" t="s">
+        <v>497</v>
+      </c>
+      <c r="H38" s="154" t="s">
+        <v>498</v>
+      </c>
+      <c r="I38" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J38" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K38" s="154" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C39" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D39" s="154" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G39" s="154" t="s">
+        <v>500</v>
+      </c>
+      <c r="H39" s="154" t="s">
+        <v>501</v>
+      </c>
+      <c r="I39" s="154" t="s">
+        <v>502</v>
+      </c>
+      <c r="J39" s="157" t="s">
+        <v>503</v>
+      </c>
+      <c r="K39" s="154"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B40" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C40" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D40" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G40" s="154" t="s">
+        <v>500</v>
+      </c>
+      <c r="H40" s="154" t="s">
+        <v>504</v>
+      </c>
+      <c r="I40" s="154" t="s">
+        <v>505</v>
+      </c>
+      <c r="J40" s="157" t="s">
+        <v>506</v>
+      </c>
+      <c r="K40" s="154"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G41" s="154" t="s">
+        <v>500</v>
+      </c>
+      <c r="H41" s="154" t="s">
+        <v>507</v>
+      </c>
+      <c r="I41" s="154" t="s">
+        <v>508</v>
+      </c>
+      <c r="J41" s="154" t="s">
+        <v>509</v>
+      </c>
+      <c r="K41" s="154"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B42" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C42" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="154" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G42" s="154" t="s">
+        <v>500</v>
+      </c>
+      <c r="H42" s="154" t="s">
+        <v>510</v>
+      </c>
+      <c r="I42" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J42" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K42" s="154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B43" s="154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C43" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D43" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G43" s="154" t="s">
+        <v>500</v>
+      </c>
+      <c r="H43" s="154" t="s">
+        <v>511</v>
+      </c>
+      <c r="I43" s="154" t="s">
+        <v>512</v>
+      </c>
+      <c r="J43" s="154" t="s">
+        <v>513</v>
+      </c>
+      <c r="K43" s="154"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="154" t="s">
+        <v>493</v>
+      </c>
+      <c r="B44" s="154" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="D44" s="154" t="s">
+        <v>495</v>
+      </c>
+      <c r="E44" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="F44" s="154" t="s">
+        <v>496</v>
+      </c>
+      <c r="G44" s="154" t="s">
+        <v>497</v>
+      </c>
+      <c r="H44" s="154" t="s">
+        <v>498</v>
+      </c>
+      <c r="I44" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J44" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K44" s="154" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B45" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C45" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G45" s="154" t="s">
+        <v>514</v>
+      </c>
+      <c r="H45" s="154" t="s">
+        <v>515</v>
+      </c>
+      <c r="I45" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J45" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K45" s="154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B46" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C46" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D46" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G46" s="154" t="s">
+        <v>514</v>
+      </c>
+      <c r="H46" s="154" t="s">
+        <v>516</v>
+      </c>
+      <c r="I46" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J46" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K46" s="154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="B47" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C47" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D47" s="154" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G47" s="154" t="s">
+        <v>514</v>
+      </c>
+      <c r="H47" s="154" t="s">
+        <v>517</v>
+      </c>
+      <c r="I47" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="J47" s="154" t="s">
+        <v>466</v>
+      </c>
+      <c r="K47" s="154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="155" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C48" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G48" s="154" t="s">
+        <v>514</v>
+      </c>
+      <c r="H48" s="154" t="s">
+        <v>518</v>
+      </c>
+      <c r="I48" s="154" t="s">
+        <v>519</v>
+      </c>
+      <c r="J48" s="154" t="s">
+        <v>520</v>
+      </c>
+      <c r="K48" s="154" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="156" t="s">
+        <v>444</v>
+      </c>
+      <c r="B49" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="C49" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D49" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="154" t="s">
+        <v>521</v>
+      </c>
+      <c r="G49" s="154" t="s">
+        <v>514</v>
+      </c>
+      <c r="H49" s="154" t="s">
+        <v>518</v>
+      </c>
+      <c r="I49" s="154" t="s">
+        <v>522</v>
+      </c>
+      <c r="J49" s="154"/>
+      <c r="K49" s="154" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="153" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" s="153" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="153" t="s">
+        <v>524</v>
+      </c>
+      <c r="E52" s="153" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="153" t="s">
+        <v>525</v>
+      </c>
+      <c r="G52" s="153" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="154" t="s">
+        <v>495</v>
+      </c>
+      <c r="B53" s="154" t="s">
+        <v>527</v>
+      </c>
+      <c r="C53" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="D53" s="154" t="s">
+        <v>528</v>
+      </c>
+      <c r="E53" s="154" t="s">
+        <v>529</v>
+      </c>
+      <c r="F53" s="154" t="s">
+        <v>530</v>
+      </c>
+      <c r="G53" s="154" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="154" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="E54" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="G54" s="154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="E55" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="G55" s="154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="154" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="154" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="E56" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="G56" s="154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="154" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="E57" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="G57" s="154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="E58" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="G58" s="154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="154" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="154" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="E59" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="G59" s="154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="154" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="154" t="s">
+        <v>535</v>
+      </c>
+      <c r="E60" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="154" t="s">
+        <v>536</v>
+      </c>
+      <c r="G60" s="154" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="154" t="s">
+        <v>535</v>
+      </c>
+      <c r="E61" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="154" t="s">
+        <v>536</v>
+      </c>
+      <c r="G61" s="154" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="154" t="s">
+        <v>535</v>
+      </c>
+      <c r="E62" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="154" t="s">
+        <v>536</v>
+      </c>
+      <c r="G62" s="154" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="154" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="154" t="s">
+        <v>535</v>
+      </c>
+      <c r="E63" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="154" t="s">
+        <v>536</v>
+      </c>
+      <c r="G63" s="154" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="154" t="s">
+        <v>535</v>
+      </c>
+      <c r="E64" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="154" t="s">
+        <v>536</v>
+      </c>
+      <c r="G64" s="154" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="154" t="s">
+        <v>538</v>
+      </c>
+      <c r="E65" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="154" t="s">
+        <v>539</v>
+      </c>
+      <c r="G65" s="154" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="154" t="s">
+        <v>538</v>
+      </c>
+      <c r="E66" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="154" t="s">
+        <v>539</v>
+      </c>
+      <c r="G66" s="154" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="154" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="154" t="s">
+        <v>538</v>
+      </c>
+      <c r="E67" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="154" t="s">
+        <v>539</v>
+      </c>
+      <c r="G67" s="154" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" s="154" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="154" t="s">
+        <v>538</v>
+      </c>
+      <c r="E68" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="154" t="s">
+        <v>539</v>
+      </c>
+      <c r="G68" s="154" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="153" t="s">
+        <v>524</v>
+      </c>
+      <c r="C71" s="153" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="B72" s="154" t="s">
+        <v>528</v>
+      </c>
+      <c r="C72" s="154" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="C73" s="154"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="154" t="s">
+        <v>535</v>
+      </c>
+      <c r="C74" s="154" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="154" t="s">
+        <v>538</v>
+      </c>
+      <c r="C75" s="154"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J33" r:id="rId1" xr:uid="{B882D009-CD91-43E5-9FAC-82ED9CA176AE}"/>
+    <hyperlink ref="J37" r:id="rId2" xr:uid="{F20FA06F-97EE-462B-AEC5-011FEC804C93}"/>
+    <hyperlink ref="J39" r:id="rId3" xr:uid="{E686CD46-07F5-44E2-A090-B1056A06C009}"/>
+    <hyperlink ref="J40" r:id="rId4" xr:uid="{F3F0899B-4398-4367-951D-3ACA50189422}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A49A3C-8606-405E-AF57-B632DE9064E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" customWidth="1"/>
@@ -15021,7 +16441,7 @@
     <col min="5" max="5" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -15029,16 +16449,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>437</v>
+        <v>543</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>438</v>
+        <v>544</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="180.75" customHeight="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -15046,14 +16466,14 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>440</v>
+        <v>545</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -15061,13 +16481,13 @@
         <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="D3" s="10">
         <v>45736</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -15075,10 +16495,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
@@ -15086,10 +16506,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -15103,18 +16523,18 @@
         <v>45729</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45.75">
+    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>445</v>
+        <v>550</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45.75">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>74</v>
       </c>
@@ -15122,13 +16542,13 @@
         <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>447</v>
+        <v>552</v>
       </c>
       <c r="D8" s="10">
         <v>45726</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45.75">
+    <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>128</v>
       </c>
@@ -15136,24 +16556,24 @@
         <v>129</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>448</v>
+        <v>553</v>
       </c>
       <c r="D9" s="10">
         <v>45734</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45.75">
+    <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>449</v>
+        <v>554</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -15161,32 +16581,32 @@
         <v>92</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>453</v>
+        <v>558</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>454</v>
+        <v>559</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>456</v>
+        <v>561</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>457</v>
+        <v>562</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>113</v>
       </c>
@@ -15194,49 +16614,244 @@
         <v>114</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>460</v>
+        <v>565</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>461</v>
+        <v>566</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>462</v>
+        <v>567</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>463</v>
+        <v>568</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>465</v>
+        <v>570</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>466</v>
+        <v>571</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E17" xr:uid="{68A49A3C-8606-405E-AF57-B632DE9064E1}"/>
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C95ED299D436A4EB4AA5BF77E5398DD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="647be6c57b5cc831ea977fc2244f1ced">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e5bb73b-09b5-4267-86ae-7d74de1de49f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43f0ca3b1926d159eec75d3a54ef83c7" ns2:_="">
+    <xsd:import namespace="8e5bb73b-09b5-4267-86ae-7d74de1de49f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8e5bb73b-09b5-4267-86ae-7d74de1de49f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86FFE324-BF42-4680-8C1E-F364A315779B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8e5bb73b-09b5-4267-86ae-7d74de1de49f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C30029-85E6-4903-AF78-29AD1C1DDD31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e5bb73b-09b5-4267-86ae-7d74de1de49f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEFC188-C504-4F4D-8E14-7072F652074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>